--- a/Информация о проходах/Андреев Геннадий Владимирович.xlsx
+++ b/Информация о проходах/Андреев Геннадий Владимирович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 07:49:28</t>
+          <t>2024-05-12 15:15:06</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 08:27:19</t>
+          <t>2024-05-31 15:25:37</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 08:42:31</t>
+          <t>2024-05-31 15:39:17</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-03 08:58:11</t>
+          <t>2024-05-31 17:28:28</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-03 09:10:36</t>
+          <t>2024-05-31 17:46:28</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-03 10:37:04</t>
+          <t>2024-05-31 18:04:25</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-03 15:41:33</t>
+          <t>2024-06-03 07:49:28</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-03 15:49:40</t>
+          <t>2024-06-03 08:27:19</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-03 16:12:04</t>
+          <t>2024-06-03 08:42:31</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-03 16:19:48</t>
+          <t>2024-06-03 08:58:11</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 17:02:17</t>
+          <t>2024-06-03 09:10:36</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-04 07:50:29</t>
+          <t>2024-06-03 10:37:04</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-04 07:50:52</t>
+          <t>2024-06-03 15:41:33</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-06-04 07:51:48</t>
+          <t>2024-06-03 15:49:40</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-04 08:41:13</t>
+          <t>2024-06-03 16:12:04</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-06-04 09:44:36</t>
+          <t>2024-06-03 16:19:48</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-06-04 09:53:12</t>
+          <t>2024-06-03 17:02:17</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-06-04 12:58:28</t>
+          <t>2024-06-04 07:50:29</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,305 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>2024-06-04 07:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-04 07:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-06-04 08:41:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-04 09:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-06-04 09:53:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-06-04 12:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2024-06-04 13:02:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:43:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:56:48</t>
         </is>
       </c>
     </row>

--- a/Информация о проходах/Андреев Геннадий Владимирович.xlsx
+++ b/Информация о проходах/Андреев Геннадий Владимирович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-12 15:15:06</t>
+          <t>2024-06-03 07:49:28</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-31 15:25:37</t>
+          <t>2024-06-03 08:27:19</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-31 15:39:17</t>
+          <t>2024-06-03 08:42:31</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-31 17:28:28</t>
+          <t>2024-06-03 08:58:11</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-31 17:46:28</t>
+          <t>2024-06-03 09:10:36</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-31 18:04:25</t>
+          <t>2024-06-03 10:37:04</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-03 07:49:28</t>
+          <t>2024-06-03 15:41:33</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-03 08:27:19</t>
+          <t>2024-06-03 15:49:40</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-03 08:42:31</t>
+          <t>2024-06-03 16:12:04</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-03 08:58:11</t>
+          <t>2024-06-03 16:19:48</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 09:10:36</t>
+          <t>2024-06-03 17:02:17</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-03 10:37:04</t>
+          <t>2024-06-04 07:50:29</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-03 15:41:33</t>
+          <t>2024-06-04 07:50:52</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-06-03 15:49:40</t>
+          <t>2024-06-04 07:51:48</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-03 16:12:04</t>
+          <t>2024-06-04 08:41:13</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-06-03 16:19:48</t>
+          <t>2024-06-04 09:44:36</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-06-03 17:02:17</t>
+          <t>2024-06-04 09:53:12</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-06-04 07:50:29</t>
+          <t>2024-06-04 12:58:28</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-06-04 07:50:52</t>
+          <t>2024-06-04 13:02:32</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-06-04 07:51:48</t>
+          <t>2024-06-04 15:43:31</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-06-04 08:41:13</t>
+          <t>2024-06-04 16:00:26</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-06-04 09:44:36</t>
+          <t>2024-06-04 16:56:48</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-06-04 09:53:12</t>
+          <t>2024-06-04 17:07:48</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1175,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-06-04 12:58:28</t>
+          <t>2024-06-04 17:13:12</t>
         </is>
       </c>
     </row>
@@ -1207,17 +1207,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-06-04 13:02:32</t>
+          <t>2024-06-05 07:51:41</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-06-04 15:43:31</t>
+          <t>2024-06-05 08:55:24</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-06-04 16:00:26</t>
+          <t>2024-06-05 09:21:12</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,4487 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-06-04 16:56:48</t>
+          <t>2024-06-05 16:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-06-05 18:55:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-06-05 19:09:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-06-06 07:44:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-06-06 08:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-06-06 08:45:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:49:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:57:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-06-06 20:20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-06-06 20:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-06-06 20:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-06-07 07:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-06-07 09:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-06-07 09:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-06-07 14:10:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-06-07 14:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-06-07 15:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-06-07 16:17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-06-07 17:04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-06-07 17:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-06-10 07:48:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-06-10 07:48:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-06-10 09:09:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-06-10 11:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-06-10 13:46:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:09:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-06-10 17:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-06-11 07:50:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:32:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-06-11 11:37:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-06-11 11:47:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:36:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:48:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-06-11 16:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-06-11 16:51:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-06-11 17:02:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-06-11 17:11:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:51:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-06-13 08:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-06-13 08:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-06-13 12:12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-06-13 12:17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-06-13 17:09:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-06-13 17:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-06-13 17:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-06-14 07:47:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-06-14 08:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-06-14 09:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-06-14 17:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-06-17 07:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-06-17 07:59:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-06-17 08:32:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-06-17 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-06-17 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-06-17 15:36:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-06-17 17:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-06-17 17:06:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-06-17 17:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-06-18 08:02:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:46:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:56:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024-06-18 17:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:39:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2024-06-19 08:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2024-06-19 10:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:02:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2024-06-19 13:12:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2024-06-19 13:17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2024-06-20 07:49:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2024-06-20 08:54:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2024-06-20 12:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2024-06-20 12:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2024-06-20 14:39:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2024-06-21 07:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2024-06-21 09:15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2024-06-21 17:09:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2024-06-22 07:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2024-06-22 07:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2024-06-22 14:12:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2024-06-24 07:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2024-06-24 08:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2024-06-24 08:29:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2024-06-24 14:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2024-06-24 14:33:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2024-06-24 15:55:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2024-06-24 16:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2024-06-24 17:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2024-06-25 07:48:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2024-06-25 07:48:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2024-06-25 08:06:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2024-06-25 17:13:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2024-06-25 19:32:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2024-06-26 08:01:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:17:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2024-06-26 09:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024-06-26 17:17:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2024-06-27 07:47:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2024-06-27 14:15:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2024-06-27 14:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2024-06-27 17:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2024-06-27 17:09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2024-06-28 07:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2024-06-28 10:58:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2024-06-28 17:05:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2024-07-01 08:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2024-07-01 12:17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2024-07-01 12:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:10:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2024-07-01 14:13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2024-07-01 14:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2024-07-01 15:47:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2024-07-01 16:02:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2024-07-01 17:04:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2024-07-01 17:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2024-07-01 17:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2024-07-02 07:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024-07-02 11:29:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024-07-02 17:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Андреев Геннадий Владимирович</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Главный инженер</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Подразделение главного инженера</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024-07-03 07:46:26</t>
         </is>
       </c>
     </row>
